--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CE2AF8-85D2-4199-8C1E-DAD0B9EB60E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE43100A-11AF-4AAE-BA66-5CD55605E21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +156,13 @@
   </si>
   <si>
     <t>도깨비의 영혼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic11</t>
+  </si>
+  <si>
+    <t>수미산의 영혼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -960,6 +967,38 @@
       </c>
       <c r="J12" s="1">
         <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>43</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.4999999999999999E-8</v>
+      </c>
+      <c r="F13" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE43100A-11AF-4AAE-BA66-5CD55605E21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FAB359-5362-4862-8175-D8AF31003253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +165,34 @@
     <t>수미산의 영혼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>relic12</t>
+  </si>
+  <si>
+    <t>도적단의 영혼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requireWeaponStringId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iconItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황제의 금고 보상
+진시황검 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -241,7 +269,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -250,6 +278,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -567,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -583,9 +614,11 @@
     <col min="7" max="7" width="25.625" customWidth="1"/>
     <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -616,8 +649,17 @@
       <c r="J1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -649,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -681,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -713,7 +755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -745,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -777,7 +819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -809,7 +851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -841,7 +883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -873,7 +915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -905,7 +947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -937,7 +979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -969,7 +1011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -999,6 +1041,47 @@
       </c>
       <c r="J13" s="1">
         <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>47</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6E-10</v>
+      </c>
+      <c r="F14" s="1">
+        <v>20000000000</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="1">
+        <v>9</v>
+      </c>
+      <c r="K14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14">
+        <v>7166</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FAB359-5362-4862-8175-D8AF31003253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D4FC60-9989-4155-ACB9-9FE58716045B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,23 @@
   <si>
     <t>황제의 금고 보상
 진시황검 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연의 영혼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연의 주인 보상
+불사왕의 검 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1082,6 +1099,47 @@
       </c>
       <c r="M14">
         <v>7166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6E-11</v>
+      </c>
+      <c r="F15" s="1">
+        <v>20000000000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="1">
+        <v>10</v>
+      </c>
+      <c r="K15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15">
+        <v>7203</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D4FC60-9989-4155-ACB9-9FE58716045B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC0806B-C7D9-4D1C-B485-366FD3826AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,21 @@
   <si>
     <t>심연의 주인 보상
 불사왕의 검 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선의 영혼</t>
+  </si>
+  <si>
+    <t>weapon124</t>
+  </si>
+  <si>
+    <t>relic14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4대 천선 보상
+설화천선의 검 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1140,6 +1155,47 @@
       </c>
       <c r="M15">
         <v>7203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>54</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4.9999999999999997E-12</v>
+      </c>
+      <c r="F16" s="1">
+        <v>20000000000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="1">
+        <v>10</v>
+      </c>
+      <c r="K16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16">
+        <v>7228</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC0806B-C7D9-4D1C-B485-366FD3826AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE0012F-7777-4ABA-8A77-267C3BFCB2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38925" yWindow="-105" windowWidth="28800" windowHeight="11385" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -633,7 +633,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1130,10 +1130,10 @@
         <v>50</v>
       </c>
       <c r="E15" s="1">
-        <v>6E-11</v>
+        <v>7.9999999999999995E-11</v>
       </c>
       <c r="F15" s="1">
-        <v>20000000000</v>
+        <v>30000000000</v>
       </c>
       <c r="G15" s="1">
         <v>-1</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE0012F-7777-4ABA-8A77-267C3BFCB2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DE8224-6909-463A-953A-28F401D95AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38925" yWindow="-105" windowWidth="28800" windowHeight="11385" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -633,7 +633,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -737,7 +737,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="2">
-        <v>7.5</v>
+        <v>75</v>
       </c>
       <c r="F3" s="2">
         <v>1000000</v>
